--- a/data/sen_data.xlsx
+++ b/data/sen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calumwebb/Library/Mobile Documents/com~apple~CloudDocs/Shiny Apps/cwip-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF9F96F-1F97-5E46-A821-5868DECF52F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9692E4B5-C8EC-2B4B-92E6-9474B2F7CC4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{2AAABB32-035B-EB41-B37F-F6B5F732E62C}"/>
   </bookViews>
@@ -1461,7 +1461,7 @@
   <dimension ref="A1:T153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
